--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_2_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_2_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.03000000000047</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.280827809369001e-07</v>
+        <v>6.364897497945776e-11</v>
       </c>
       <c r="I2" t="n">
-        <v>1.280827809369001e-07</v>
+        <v>6.364897497945776e-11</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>44.27102190429597</v>
+        <v>63.54041545185386</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[29.432617965979347, 59.109425842612595]</t>
+          <t>[45.553187127955596, 81.52764377575213]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.026081500934197e-07</v>
+        <v>6.885552128466088e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>3.026081500934197e-07</v>
+        <v>6.885552128466088e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.553500271144502</v>
+        <v>1.893131909370426</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1509738850989626, 1.9560266571900415]</t>
+          <t>[1.5786581702723481, 2.207605648468503]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7.386642408846456e-10</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="S2" t="n">
-        <v>7.386642408846456e-10</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="T2" t="n">
-        <v>52.45570252409581</v>
+        <v>55.33741013112727</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.98412881804448, 61.92727623014714]</t>
+          <t>[45.140760239155156, 65.53406002309939]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.532107773982716e-14</v>
+        <v>2.97539770599542e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>1.532107773982716e-14</v>
+        <v>2.97539770599542e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>18.84140140140176</v>
+        <v>17.57227227227262</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.2378778778782</v>
+        <v>16.31351351351384</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.44492492492531</v>
+        <v>18.8310310310314</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.03000000000047</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.973117069731245e-08</v>
+        <v>1.12672426944016e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.973117069731245e-08</v>
+        <v>1.12672426944016e-10</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>49.14024072339164</v>
+        <v>61.00966214639164</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[33.926854213589436, 64.35362723319385]</t>
+          <t>[45.479242512221816, 76.54008178056147]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.528802682341905e-08</v>
+        <v>4.627680461055661e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>5.528802682341905e-08</v>
+        <v>4.627680461055661e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.478026573760963</v>
+        <v>1.478026573760965</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.1006580868432714, 1.8553950606786547]</t>
+          <t>[1.1887107337907326, 1.767342413731197]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5.009930248434102e-10</v>
+        <v>2.111644192837048e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>5.009930248434102e-10</v>
+        <v>2.111644192837048e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>52.62463994370884</v>
+        <v>63.85232243471013</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.91528568266228, 62.333994204755406]</t>
+          <t>[53.9065881723335, 73.79805669708676]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.108624468950438e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W3" t="n">
-        <v>3.108624468950438e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X3" t="n">
-        <v>19.14206206206243</v>
+        <v>19.2338338338342</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.6387587587591</v>
+        <v>18.07577577577612</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.64536536536576</v>
+        <v>20.39189189189229</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.03000000000047</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.476075066150997e-11</v>
+        <v>2.512637764517933e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>4.476075066150997e-11</v>
+        <v>2.512637764517933e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>65.08285500174527</v>
+        <v>53.3085218159973</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[46.711458512998234, 83.45425149049231]</t>
+          <t>[32.96095473776006, 73.65608889423453]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.424698106854976e-09</v>
+        <v>3.641686046051973e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>6.424698106854976e-09</v>
+        <v>3.641686046051973e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.17613178422681</v>
+        <v>1.025184389459732</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.8616580451287312, 1.4906055233248878]</t>
+          <t>[0.6478159025420398, 1.4025528763774249]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.664039350757207e-09</v>
+        <v>1.886080201796148e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>1.664039350757207e-09</v>
+        <v>1.886080201796148e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>60.69690305547937</v>
+        <v>58.48438799509732</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.543156091723816, 70.85065001923492]</t>
+          <t>[48.019974000295775, 68.94880198989887]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>20.34470470470509</v>
+        <v>21.04644644644686</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.09195195195231</v>
+        <v>19.53593593593632</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.59745745745787</v>
+        <v>22.5569569569574</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.03000000000047</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.330172561126886e-06</v>
+        <v>5.932148999243658e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>2.330172561126886e-06</v>
+        <v>5.932148999243658e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>49.21018058492181</v>
+        <v>36.46302403792367</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[28.082270683760157, 70.33809048608346]</t>
+          <t>[16.536393340403322, 56.389654735444026]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.552924753462804e-05</v>
+        <v>0.0006110309954463489</v>
       </c>
       <c r="O5" t="n">
-        <v>2.552924753462804e-05</v>
+        <v>0.0006110309954463489</v>
       </c>
       <c r="P5" t="n">
-        <v>1.150973885098963</v>
+        <v>0.9622896416401172</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.6729738016698859, 1.628973968528041]</t>
+          <t>[0.42139481039142446, 1.50318447288881]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.514510869093932e-05</v>
+        <v>0.0008298385167389011</v>
       </c>
       <c r="S5" t="n">
-        <v>1.514510869093932e-05</v>
+        <v>0.0008298385167389011</v>
       </c>
       <c r="T5" t="n">
-        <v>56.79511930597822</v>
+        <v>47.28326518144479</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.878953492587385, 68.71128511936905]</t>
+          <t>[36.76167837291204, 57.80485198997754]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.84074977482851e-12</v>
+        <v>1.072808508695289e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.84074977482851e-12</v>
+        <v>1.072808508695289e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>20.44492492492531</v>
+        <v>21.29819819819861</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.54074074074109</v>
+        <v>19.13313313313351</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.34910910910953</v>
+        <v>23.46326326326372</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.03000000000047</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.954800065208985e-08</v>
+        <v>2.872557747224391e-10</v>
       </c>
       <c r="I6" t="n">
-        <v>3.954800065208985e-08</v>
+        <v>2.872557747224391e-10</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>54.63710012748387</v>
+        <v>61.41496635144663</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[33.936568576065, 75.33763167890274]</t>
+          <t>[42.870568968752806, 79.95936373414045]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.190311374856591e-06</v>
+        <v>3.146648785978812e-08</v>
       </c>
       <c r="O6" t="n">
-        <v>3.190311374856591e-06</v>
+        <v>3.146648785978812e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6100790538502707</v>
+        <v>0.5346053564667317</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.22013161736865516, 1.0000264903318863]</t>
+          <t>[0.2327105669325773, 0.8365001460008861]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.002891159223536333</v>
+        <v>0.0008717528181854117</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002891159223536333</v>
+        <v>0.0008717528181854117</v>
       </c>
       <c r="T6" t="n">
-        <v>64.17483487469954</v>
+        <v>64.69561034170131</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[53.430910210326005, 74.91875953907308]</t>
+          <t>[54.76655511015673, 74.62466557324589]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>22.59965965966008</v>
+        <v>23.01011011011056</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.04624624624664</v>
+        <v>21.80170170170213</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.15307307307353</v>
+        <v>24.21851851851899</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.03000000000047</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.10263592595561e-10</v>
+        <v>1.506835101139359e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>3.10263592595561e-10</v>
+        <v>1.506835101139359e-09</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>53.81218066989371</v>
+        <v>59.3314930338172</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[39.37154886649684, 68.25281247329059]</t>
+          <t>[41.47736378874109, 77.1856222788933]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.825291251478234e-09</v>
+        <v>2.909900786995934e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.825291251478234e-09</v>
+        <v>2.909900786995934e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2578684660604234</v>
+        <v>0.2956053147521924</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.04402632347373103, 0.5597632555945777]</t>
+          <t>[-0.031447373909808896, 0.6226580034141938]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.09223415102933585</v>
+        <v>0.07534630704332534</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09223415102933585</v>
+        <v>0.07534630704332534</v>
       </c>
       <c r="T7" t="n">
-        <v>55.50856909932347</v>
+        <v>56.55167816389205</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.79752907578083, 64.2196091228661]</t>
+          <t>[46.40400263900193, 66.69935368878217]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.221245327087672e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.221245327087672e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>24.0027427427432</v>
+        <v>23.96676676676724</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.80010010010053</v>
+        <v>22.6576576576581</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.20538538538586</v>
+        <v>25.27587587587637</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.03000000000047</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>7.230796206236789e-08</v>
+        <v>1.443845043525016e-12</v>
       </c>
       <c r="I8" t="n">
-        <v>7.230796206236789e-08</v>
+        <v>1.443845043525016e-12</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>53.4150136605444</v>
+        <v>64.84122081931564</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[35.001598354302985, 71.82842896678582]</t>
+          <t>[50.54467635813644, 79.13776528049483]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.343445921290879e-07</v>
+        <v>8.181233468462779e-12</v>
       </c>
       <c r="O8" t="n">
-        <v>5.343445921290879e-07</v>
+        <v>8.181233468462779e-12</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1698158191129622</v>
+        <v>0.1446579199851161</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.19497371824080734, 0.5346053564667317]</t>
+          <t>[-0.09434212172942225, 0.3836579616996545]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.3534552616933926</v>
+        <v>0.229172293260794</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3534552616933926</v>
+        <v>0.229172293260794</v>
       </c>
       <c r="T8" t="n">
-        <v>49.7658717281867</v>
+        <v>59.57241325039744</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[39.08616712890844, 60.44557632746496]</t>
+          <t>[50.83457429596733, 68.31025220482755]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.64930308194289e-12</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>3.64930308194289e-12</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>24.35351351351397</v>
+        <v>24.57097097097145</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.90032032032076</v>
+        <v>23.61431431431478</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.80670670670719</v>
+        <v>25.52762762762812</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.88000000000014</v>
+        <v>22.97000000000015</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.164744056758593e-08</v>
+        <v>1.35361173825288e-07</v>
       </c>
       <c r="I9" t="n">
-        <v>1.164744056758593e-08</v>
+        <v>1.35361173825288e-07</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>57.46936835742248</v>
+        <v>49.46977047458772</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[37.618262244950245, 77.32047446989472]</t>
+          <t>[32.607324755485024, 66.33221619369041]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.562713041307177e-07</v>
+        <v>4.263424078221334e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>5.562713041307177e-07</v>
+        <v>4.263424078221334e-07</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.3396316382259235</v>
+        <v>-0.1509473947670772</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.729579074707539, 0.0503157982556921]</t>
+          <t>[-0.5660527303765397, 0.2641579408423853]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.08620109936361442</v>
+        <v>0.4677214627695192</v>
       </c>
       <c r="S9" t="n">
-        <v>0.08620109936361442</v>
+        <v>0.4677214627695192</v>
       </c>
       <c r="T9" t="n">
-        <v>56.72148760216576</v>
+        <v>61.76308210598078</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.61053939777512, 67.83243580655639]</t>
+          <t>[51.15140882985118, 72.37475538211038]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.160494005920555e-13</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.160494005920555e-13</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="X9" t="n">
-        <v>1.236756756756765</v>
+        <v>0.5518318318318371</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.1832232232232216</v>
+        <v>-0.9657057057057117</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.656736736736752</v>
+        <v>2.069369369369386</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.88000000000014</v>
+        <v>22.97000000000015</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>5.911376947942415e-07</v>
+        <v>4.831046673814399e-11</v>
       </c>
       <c r="I10" t="n">
-        <v>5.911376947942415e-07</v>
+        <v>4.831046673814399e-11</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>50.22343749201701</v>
+        <v>55.60701141441562</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[31.636570669818767, 68.81030431421524]</t>
+          <t>[41.7101609355864, 69.50386189324483]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.083040527178781e-06</v>
+        <v>2.826716638537619e-10</v>
       </c>
       <c r="O10" t="n">
-        <v>2.083040527178781e-06</v>
+        <v>2.826716638537619e-10</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1132105460753081</v>
+        <v>-0.1383684452031542</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.5660527303765388, 0.33963163822592257]</t>
+          <t>[-0.4276842851733855, 0.1509473947670772]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.6170507047368838</v>
+        <v>0.3405616523606074</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6170507047368838</v>
+        <v>0.3405616523606074</v>
       </c>
       <c r="T10" t="n">
-        <v>53.53928490388903</v>
+        <v>56.06303875973139</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[41.999424055100015, 65.07914575267804]</t>
+          <t>[47.262733618629355, 64.86334390083343]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.162448163924637e-12</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>4.162448163924637e-12</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4122522522522551</v>
+        <v>0.505845845845851</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1.236756756756761</v>
+        <v>-0.5518318318318343</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.061261261261271</v>
+        <v>1.563523523523536</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.88000000000014</v>
+        <v>22.97000000000015</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>7.361806525496561e-07</v>
+        <v>8.98574811225572e-08</v>
       </c>
       <c r="I11" t="n">
-        <v>7.361806525496561e-07</v>
+        <v>8.98574811225572e-08</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>51.72060105197065</v>
+        <v>53.57089700082525</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[29.2860544282362, 74.1551476757051]</t>
+          <t>[32.62424312700031, 74.5175508746502]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.985782165132456e-05</v>
+        <v>5.554081839331815e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>2.985782165132456e-05</v>
+        <v>5.554081839331815e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4717106086471166</v>
+        <v>0.5220264069028078</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.01886842434588587, 0.9245527929483472]</t>
+          <t>[0.10692107129334527, 0.9371317425122703]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.04154917662580115</v>
+        <v>0.01486864450442793</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04154917662580115</v>
+        <v>0.01486864450442793</v>
       </c>
       <c r="T11" t="n">
-        <v>56.45455037551431</v>
+        <v>51.30764649360101</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.59150443298034, 68.31759631804829]</t>
+          <t>[40.157809362502874, 62.45748362469914]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.929567616798522e-12</v>
+        <v>5.31930055558405e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.929567616798522e-12</v>
+        <v>5.31930055558405e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>21.16228228228241</v>
+        <v>21.06158158158172</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.51327327327339</v>
+        <v>19.54404404404417</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.81129129129143</v>
+        <v>22.57911911911927</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.88000000000014</v>
+        <v>22.97000000000015</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.385782356524203e-05</v>
+        <v>2.606114168912654e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>3.385782356524203e-05</v>
+        <v>2.606114168912654e-08</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>48.66807875019847</v>
+        <v>60.11158494187965</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[22.590010745205788, 74.74614675519115]</t>
+          <t>[37.38445152183694, 82.83871836192236]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0004896319988860753</v>
+        <v>3.072969677386794e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0004896319988860753</v>
+        <v>3.072969677386794e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5975001042863477</v>
+        <v>0.6226580034141929</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.06918422260157797, 1.1258159859711174]</t>
+          <t>[0.2327105669325773, 1.0126054398958084]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.0275356997674483</v>
+        <v>0.002408358408137135</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0275356997674483</v>
+        <v>0.002408358408137135</v>
       </c>
       <c r="T12" t="n">
-        <v>53.88874474517748</v>
+        <v>62.13718955434515</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[40.270675358634534, 67.50681413172042]</t>
+          <t>[50.3189535925449, 73.9554255161454]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.810347593002916e-10</v>
+        <v>8.37108160567368e-14</v>
       </c>
       <c r="W12" t="n">
-        <v>3.810347593002916e-10</v>
+        <v>8.37108160567368e-14</v>
       </c>
       <c r="X12" t="n">
-        <v>20.70422422422435</v>
+        <v>20.69369369369383</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.78038038038049</v>
+        <v>19.26812812812826</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.6280680680682</v>
+        <v>22.1192592592594</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.88000000000014</v>
+        <v>22.97000000000015</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.401469021418023e-06</v>
+        <v>7.21440607254209e-08</v>
       </c>
       <c r="I13" t="n">
-        <v>2.401469021418023e-06</v>
+        <v>7.21440607254209e-08</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>49.10782755853093</v>
+        <v>53.32136604465462</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[27.07576140979089, 71.13989370727097]</t>
+          <t>[33.45411683702112, 73.18861525228812]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.928072456800159e-05</v>
+        <v>2.358026611082309e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>4.928072456800159e-05</v>
+        <v>2.358026611082309e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6226580034141929</v>
+        <v>1.113237036407194</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.1698158191129604, 1.0755001877154253]</t>
+          <t>[0.735868549489501, 1.4906055233248878]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.00812984351523327</v>
+        <v>3.811892650418258e-07</v>
       </c>
       <c r="S13" t="n">
-        <v>0.00812984351523327</v>
+        <v>3.811892650418258e-07</v>
       </c>
       <c r="T13" t="n">
-        <v>56.7416560839095</v>
+        <v>62.69494067915687</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[44.87261441342814, 68.61069775439087]</t>
+          <t>[51.93979909421077, 73.45008226410297]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.678435168628312e-12</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="W13" t="n">
-        <v>1.678435168628312e-12</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="X13" t="n">
-        <v>20.61261261261274</v>
+        <v>18.90024024024036</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.96360360360371</v>
+        <v>17.52066066066077</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.26162162162176</v>
+        <v>20.27981981981996</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.88000000000014</v>
+        <v>22.97000000000015</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.471645004746946e-07</v>
+        <v>5.285979557401177e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>1.471645004746946e-07</v>
+        <v>5.285979557401177e-06</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>55.61971205725331</v>
+        <v>49.47715798305082</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[35.28528554072874, 75.95413857377788]</t>
+          <t>[27.982501855435572, 70.97181411066606]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.661539669628453e-06</v>
+        <v>3.056667702239224e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.661539669628453e-06</v>
+        <v>3.056667702239224e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>1.239026532046426</v>
+        <v>1.251605481610348</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.81134224687304, 1.666710817219811]</t>
+          <t>[0.761026448617347, 1.7421845146033483]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>5.485383747227957e-07</v>
+        <v>5.79171379166965e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>5.485383747227957e-07</v>
+        <v>5.79171379166965e-06</v>
       </c>
       <c r="T14" t="n">
-        <v>63.83213502955029</v>
+        <v>59.05709377320219</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[52.317951649508174, 75.34631840959241]</t>
+          <t>[46.87483399576381, 71.23935355064057]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.465494392505207e-14</v>
+        <v>1.093125590045929e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>1.465494392505207e-14</v>
+        <v>1.093125590045929e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>18.36812812812824</v>
+        <v>18.39439439439452</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.81073073073083</v>
+        <v>16.60094094094105</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.92552552552565</v>
+        <v>20.18784784784798</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.88000000000014</v>
+        <v>22.97000000000015</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>5.782368694973172e-09</v>
+        <v>4.020268833837548e-06</v>
       </c>
       <c r="I15" t="n">
-        <v>5.782368694973172e-09</v>
+        <v>4.020268833837548e-06</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>50.74497983229345</v>
+        <v>50.91214561204816</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[35.00689269163361, 66.48306697295328]</t>
+          <t>[30.524954577011357, 71.29933664708497]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>5.751494636108134e-08</v>
+        <v>8.331179150333767e-06</v>
       </c>
       <c r="O15" t="n">
-        <v>5.751494636108134e-08</v>
+        <v>8.331179150333767e-06</v>
       </c>
       <c r="P15" t="n">
-        <v>1.327079178993888</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.9874475407679633, 1.666710817219812]</t>
+          <t>[1.0377633390236554, 1.9686056067539646]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>5.333984365307742e-10</v>
+        <v>5.541639835904277e-08</v>
       </c>
       <c r="S15" t="n">
-        <v>5.333984365307742e-10</v>
+        <v>5.541639835904277e-08</v>
       </c>
       <c r="T15" t="n">
-        <v>58.45504419588379</v>
+        <v>55.2355687969701</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[49.28491791296978, 67.6251704787978]</t>
+          <t>[42.90551306269726, 67.56562453124295]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.177058450707591e-11</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.177058450707591e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>18.04748748748759</v>
+        <v>17.47467467467479</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.81073073073083</v>
+        <v>15.7731931931933</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.28424424424436</v>
+        <v>19.17615615615628</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.88000000000014</v>
+        <v>22.97000000000015</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.024895296408701e-07</v>
+        <v>8.970629695703725e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>1.024895296408701e-07</v>
+        <v>8.970629695703725e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>51.21041936200608</v>
+        <v>46.17129338467632</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[31.748366451544854, 70.6724722724673]</t>
+          <t>[23.650082740904892, 68.69250402844774]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.370789963819121e-06</v>
+        <v>0.0001556942745126744</v>
       </c>
       <c r="O16" t="n">
-        <v>3.370789963819121e-06</v>
+        <v>0.0001556942745126744</v>
       </c>
       <c r="P16" t="n">
-        <v>1.993763505881811</v>
+        <v>1.679289766783733</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.6038160694001942, 2.383710942363427]</t>
+          <t>[1.0629212381515014, 2.295658295415965]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.05613304160579e-13</v>
+        <v>1.788094525112527e-06</v>
       </c>
       <c r="S16" t="n">
-        <v>2.05613304160579e-13</v>
+        <v>1.788094525112527e-06</v>
       </c>
       <c r="T16" t="n">
-        <v>55.54640439767323</v>
+        <v>49.82844442982914</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[45.02531050866443, 66.06749828668202]</t>
+          <t>[36.41045526902201, 63.24643359063627]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>7.327471962526033e-14</v>
+        <v>1.993117670906486e-09</v>
       </c>
       <c r="W16" t="n">
-        <v>7.327471962526033e-14</v>
+        <v>1.993117670906486e-09</v>
       </c>
       <c r="X16" t="n">
-        <v>15.61977977977987</v>
+        <v>16.83087087087098</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.19979979979988</v>
+        <v>14.57755755755765</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.03975975975986</v>
+        <v>19.08418418418431</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_2_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_2_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.15000000000049</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>6.364897497945776e-11</v>
+        <v>2.785052410914091e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>6.364897497945776e-11</v>
+        <v>2.785052410914091e-09</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>63.54041545185386</v>
+        <v>62.55475935214299</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[45.553187127955596, 81.52764377575213]</t>
+          <t>[45.20107368588732, 79.90844501839867]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>6.885552128466088e-09</v>
+        <v>4.196903713449274e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>6.885552128466088e-09</v>
+        <v>4.196903713449274e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.893131909370426</v>
+        <v>1.603816069400194</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.5786581702723481, 2.207605648468503]</t>
+          <t>[1.2767633807381937, 1.9308687580621946]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>7.65609797781508e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>7.65609797781508e-13</v>
       </c>
       <c r="T2" t="n">
-        <v>55.33741013112727</v>
+        <v>62.77029756265541</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[45.140760239155156, 65.53406002309939]</t>
+          <t>[51.34402020116222, 74.19657492414859]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.97539770599542e-14</v>
+        <v>1.998401444325282e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.97539770599542e-14</v>
+        <v>1.998401444325282e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>17.57227227227262</v>
+        <v>18.55159159159193</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.31351351351384</v>
+        <v>17.25497497497529</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.8310310310314</v>
+        <v>19.84820820820857</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.15000000000049</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.12672426944016e-10</v>
+        <v>1.245945235872625e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>1.12672426944016e-10</v>
+        <v>1.245945235872625e-09</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>61.00966214639164</v>
+        <v>61.33252962192095</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[45.479242512221816, 76.54008178056147]</t>
+          <t>[42.501366779404094, 80.16369246443782]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.627680461055661e-10</v>
+        <v>4.592230817834775e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>4.627680461055661e-10</v>
+        <v>4.592230817834775e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.478026573760965</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 1.767342413731197]</t>
+          <t>[0.9748685912040393, 1.628973968528042]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.111644192837048e-13</v>
+        <v>3.248816771161955e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>2.111644192837048e-13</v>
+        <v>3.248816771161955e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>63.85232243471013</v>
+        <v>62.32802509218583</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[53.9065881723335, 73.79805669708676]</t>
+          <t>[51.5144011007019, 73.14164908366976]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="W3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>19.2338338338342</v>
+        <v>19.74846846846883</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.07577577577612</v>
+        <v>18.45185185185219</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.39189189189229</v>
+        <v>21.04508508508547</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.15000000000049</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.512637764517933e-08</v>
+        <v>1.331395627079957e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>2.512637764517933e-08</v>
+        <v>1.331395627079957e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>53.3085218159973</v>
+        <v>57.00543509403122</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[32.96095473776006, 73.65608889423453]</t>
+          <t>[38.81252192507942, 75.19834826298302]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.641686046051973e-06</v>
+        <v>1.077240381341937e-07</v>
       </c>
       <c r="O4" t="n">
-        <v>3.641686046051973e-06</v>
+        <v>1.077240381341937e-07</v>
       </c>
       <c r="P4" t="n">
-        <v>1.025184389459732</v>
+        <v>1.289342330302117</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.6478159025420398, 1.4025528763774249]</t>
+          <t>[0.8993948938205003, 1.6792897667837332]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.886080201796148e-06</v>
+        <v>3.264416692516647e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>1.886080201796148e-06</v>
+        <v>3.264416692516647e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>58.48438799509732</v>
+        <v>53.07981390307415</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[48.019974000295775, 68.94880198989887]</t>
+          <t>[42.08017313428056, 64.07945467186775]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.110223024625157e-14</v>
+        <v>1.259214954529853e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>1.110223024625157e-14</v>
+        <v>1.259214954529853e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>21.04644644644686</v>
+        <v>19.7983383383387</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.53593593593632</v>
+        <v>18.2523723723727</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.5569569569574</v>
+        <v>21.3443043043047</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.15000000000049</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.932148999243658e-05</v>
+        <v>4.456501834226856e-11</v>
       </c>
       <c r="I5" t="n">
-        <v>5.932148999243658e-05</v>
+        <v>4.456501834226856e-11</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>36.46302403792367</v>
+        <v>61.75419964413785</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[16.536393340403322, 56.389654735444026]</t>
+          <t>[43.608136317351466, 79.90026297092423]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0006110309954463489</v>
+        <v>1.676161054398051e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0006110309954463489</v>
+        <v>1.676161054398051e-08</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9622896416401172</v>
+        <v>0.7484474990534231</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.42139481039142446, 1.50318447288881]</t>
+          <t>[0.44655270951926873, 1.0503422885875775]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0008298385167389011</v>
+        <v>9.406667219158393e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0008298385167389011</v>
+        <v>9.406667219158393e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>47.28326518144479</v>
+        <v>60.7799388467924</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[36.76167837291204, 57.80485198997754]</t>
+          <t>[51.30529551138825, 70.25458218219654]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.072808508695289e-11</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>1.072808508695289e-11</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>21.29819819819861</v>
+        <v>21.94274274274315</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.13313313313351</v>
+        <v>20.74586586586625</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.46326326326372</v>
+        <v>23.13961961962005</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.15000000000049</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.872557747224391e-10</v>
+        <v>6.926522018280146e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>2.872557747224391e-10</v>
+        <v>6.926522018280146e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>61.41496635144663</v>
+        <v>46.69180826935268</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[42.870568968752806, 79.95936373414045]</t>
+          <t>[23.880828257552565, 69.50278828115279]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.146648785978812e-08</v>
+        <v>0.0001589093426497268</v>
       </c>
       <c r="O6" t="n">
-        <v>3.146648785978812e-08</v>
+        <v>0.0001589093426497268</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5346053564667317</v>
+        <v>0.7861843477451922</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 0.8365001460008861]</t>
+          <t>[0.3207632138800367, 1.2516054816103477]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0008717528181854117</v>
+        <v>0.001412759772230876</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0008717528181854117</v>
+        <v>0.001412759772230876</v>
       </c>
       <c r="T6" t="n">
-        <v>64.69561034170131</v>
+        <v>56.38201497746195</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[54.76655511015673, 74.62466557324589]</t>
+          <t>[44.577683875729775, 68.18634607919412]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.724842491057643e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.724842491057643e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>23.01011011011056</v>
+        <v>21.79313313313354</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.80170170170213</v>
+        <v>19.94794794794831</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.21851851851899</v>
+        <v>23.63831831831876</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.15000000000049</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.506835101139359e-09</v>
+        <v>7.536643420458233e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>1.506835101139359e-09</v>
+        <v>7.536643420458233e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>59.3314930338172</v>
+        <v>60.86309067461354</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[41.47736378874109, 77.1856222788933]</t>
+          <t>[38.113872539906126, 83.61230880932095]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.909900786995934e-08</v>
+        <v>2.498252431371029e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>2.909900786995934e-08</v>
+        <v>2.498252431371029e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2956053147521924</v>
+        <v>0.5471843060306538</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.031447373909808896, 0.6226580034141938]</t>
+          <t>[0.14465791998511346, 0.9497106920761942]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.07534630704332534</v>
+        <v>0.008824927971288865</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07534630704332534</v>
+        <v>0.008824927971288865</v>
       </c>
       <c r="T7" t="n">
-        <v>56.55167816389205</v>
+        <v>64.31787159516399</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.40400263900193, 66.69935368878217]</t>
+          <t>[52.01828973200939, 76.6174534583186]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.221245327087672e-14</v>
+        <v>9.992007221626409e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>1.221245327087672e-14</v>
+        <v>9.992007221626409e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>23.96676676676724</v>
+        <v>22.74066066066108</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.6576576576581</v>
+        <v>21.14482482482521</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.27587587587637</v>
+        <v>24.33649649649695</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.15000000000049</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.443845043525016e-12</v>
+        <v>2.255289732744359e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>1.443845043525016e-12</v>
+        <v>2.255289732744359e-09</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>64.84122081931564</v>
+        <v>60.04318036827947</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[50.54467635813644, 79.13776528049483]</t>
+          <t>[43.08036377197091, 77.00599696458804]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>8.181233468462779e-12</v>
+        <v>6.555013865039427e-09</v>
       </c>
       <c r="O8" t="n">
-        <v>8.181233468462779e-12</v>
+        <v>6.555013865039427e-09</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1446579199851161</v>
+        <v>0.1446579199851152</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.09434212172942225, 0.3836579616996545]</t>
+          <t>[-0.1823947686768843, 0.4717106086471148]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.229172293260794</v>
+        <v>0.377746285749625</v>
       </c>
       <c r="S8" t="n">
-        <v>0.229172293260794</v>
+        <v>0.377746285749625</v>
       </c>
       <c r="T8" t="n">
-        <v>59.57241325039744</v>
+        <v>57.60503951191181</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[50.83457429596733, 68.31025220482755]</t>
+          <t>[47.12102684995368, 68.08905217386993]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.976196983832779e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.976196983832779e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>24.57097097097145</v>
+        <v>24.33649649649694</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.61431431431478</v>
+        <v>23.03987987988031</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.52762762762812</v>
+        <v>25.63311311311358</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.97000000000015</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.35361173825288e-07</v>
+        <v>5.661004932600022e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>1.35361173825288e-07</v>
+        <v>5.661004932600022e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>49.46977047458772</v>
+        <v>43.25327649231668</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[32.607324755485024, 66.33221619369041]</t>
+          <t>[24.498485097603826, 62.00806788702953]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.263424078221334e-07</v>
+        <v>2.969075920811193e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>4.263424078221334e-07</v>
+        <v>2.969075920811193e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.1509473947670772</v>
+        <v>-0.2138421425866923</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.5660527303765397, 0.2641579408423853]</t>
+          <t>[-0.754736973835386, 0.3270526886620013]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.4677214627695192</v>
+        <v>0.4300540106708919</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4677214627695192</v>
+        <v>0.4300540106708919</v>
       </c>
       <c r="T9" t="n">
-        <v>61.76308210598078</v>
+        <v>55.11211096636301</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[51.15140882985118, 72.37475538211038]</t>
+          <t>[43.978113923032595, 66.24610800969342]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>5.719869022868806e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>5.719869022868806e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5518318318318371</v>
+        <v>0.7783583583583606</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.9657057057057117</v>
+        <v>-1.190430430430442</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.069369369369386</v>
+        <v>2.747147147147163</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.97000000000015</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.831046673814399e-11</v>
+        <v>2.200384739570183e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>4.831046673814399e-11</v>
+        <v>2.200384739570183e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>55.60701141441562</v>
+        <v>46.89458612766306</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[41.7101609355864, 69.50386189324483]</t>
+          <t>[25.840273098901235, 67.94889915642489]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.826716638537619e-10</v>
+        <v>4.980075559979369e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826716638537619e-10</v>
+        <v>4.980075559979369e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1383684452031542</v>
+        <v>-0.2012631930227693</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.4276842851733855, 0.1509473947670772]</t>
+          <t>[-0.767315923399309, 0.3647895373537704]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.3405616523606074</v>
+        <v>0.477613775743595</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3405616523606074</v>
+        <v>0.477613775743595</v>
       </c>
       <c r="T10" t="n">
-        <v>56.06303875973139</v>
+        <v>49.81497622845436</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.262733618629355, 64.86334390083343]</t>
+          <t>[36.79180815708648, 62.83814429982223]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>9.322269622913382e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>9.322269622913382e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>0.505845845845851</v>
+        <v>0.7325725725725754</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.5518318318318343</v>
+        <v>-1.327787787787799</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.563523523523536</v>
+        <v>2.79293293293295</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.97000000000015</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>8.98574811225572e-08</v>
+        <v>6.292452581213581e-08</v>
       </c>
       <c r="I11" t="n">
-        <v>8.98574811225572e-08</v>
+        <v>6.292452581213581e-08</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>53.57089700082525</v>
+        <v>54.29585500983056</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[32.62424312700031, 74.5175508746502]</t>
+          <t>[34.76133149084886, 73.83037852881226]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>5.554081839331815e-06</v>
+        <v>1.228184543178301e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>5.554081839331815e-06</v>
+        <v>1.228184543178301e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5220264069028078</v>
+        <v>0.2704474156243464</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.10692107129334527, 0.9371317425122703]</t>
+          <t>[-0.14465791998511612, 0.6855527512338089]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.01486864450442793</v>
+        <v>0.1961006071077611</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01486864450442793</v>
+        <v>0.1961006071077611</v>
       </c>
       <c r="T11" t="n">
-        <v>51.30764649360101</v>
+        <v>61.00877904702186</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[40.157809362502874, 62.45748362469914]</t>
+          <t>[49.77342431701072, 72.244133777033]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.31930055558405e-12</v>
+        <v>2.90878432451791e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>5.31930055558405e-12</v>
+        <v>2.90878432451791e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>21.06158158158172</v>
+        <v>21.88560560560574</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.54404404404417</v>
+        <v>20.37467467467479</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.57911911911927</v>
+        <v>23.39653653653668</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.97000000000015</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.606114168912654e-08</v>
+        <v>5.162879124220865e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>2.606114168912654e-08</v>
+        <v>5.162879124220865e-09</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>60.11158494187965</v>
+        <v>61.11499512695296</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[37.38445152183694, 82.83871836192236]</t>
+          <t>[39.49600730668301, 82.73398294722291]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.072969677386794e-06</v>
+        <v>8.876431665250095e-07</v>
       </c>
       <c r="O12" t="n">
-        <v>3.072969677386794e-06</v>
+        <v>8.876431665250095e-07</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6226580034141929</v>
+        <v>0.5597632555945777</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.2327105669325773, 1.0126054398958084]</t>
+          <t>[0.19497371824080822, 0.9245527929483472]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.002408358408137135</v>
+        <v>0.003421508371695525</v>
       </c>
       <c r="S12" t="n">
-        <v>0.002408358408137135</v>
+        <v>0.003421508371695525</v>
       </c>
       <c r="T12" t="n">
-        <v>62.13718955434515</v>
+        <v>56.89599908460873</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[50.3189535925449, 73.9554255161454]</t>
+          <t>[45.60360958123368, 68.18838858798378]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.37108160567368e-14</v>
+        <v>3.277378368693462e-13</v>
       </c>
       <c r="W12" t="n">
-        <v>8.37108160567368e-14</v>
+        <v>3.277378368693462e-13</v>
       </c>
       <c r="X12" t="n">
-        <v>20.69369369369383</v>
+        <v>20.83253253253266</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.26812812812826</v>
+        <v>19.50474474474486</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.1192592592594</v>
+        <v>22.16032032032045</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.97000000000015</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>7.21440607254209e-08</v>
+        <v>1.28890099704293e-08</v>
       </c>
       <c r="I13" t="n">
-        <v>7.21440607254209e-08</v>
+        <v>1.28890099704293e-08</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>53.32136604465462</v>
+        <v>52.03986258065125</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[33.45411683702112, 73.18861525228812]</t>
+          <t>[32.42745532496116, 71.65226983634133]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.358026611082309e-06</v>
+        <v>2.900807343886314e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>2.358026611082309e-06</v>
+        <v>2.900807343886314e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>1.113237036407194</v>
+        <v>0.8365001460008861</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.735868549489501, 1.4906055233248878]</t>
+          <t>[0.47171060864711656, 1.2012896833546556]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.811892650418258e-07</v>
+        <v>3.237362446295577e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>3.811892650418258e-07</v>
+        <v>3.237362446295577e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>62.69494067915687</v>
+        <v>60.26834613636968</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[51.93979909421077, 73.45008226410297]</t>
+          <t>[50.416638221581124, 70.12005405115823]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W13" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X13" t="n">
-        <v>18.90024024024036</v>
+        <v>19.82524524524536</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.52066066066077</v>
+        <v>18.49745745745757</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.27981981981996</v>
+        <v>21.15303303303316</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.97000000000015</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>5.285979557401177e-06</v>
+        <v>2.352983810016696e-07</v>
       </c>
       <c r="I14" t="n">
-        <v>5.285979557401177e-06</v>
+        <v>2.352983810016696e-07</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>49.47715798305082</v>
+        <v>43.50877330227277</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[27.982501855435572, 70.97181411066606]</t>
+          <t>[26.41786783265396, 60.59967877189158]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.056667702239224e-05</v>
+        <v>6.012804319999177e-06</v>
       </c>
       <c r="O14" t="n">
-        <v>3.056667702239224e-05</v>
+        <v>6.012804319999177e-06</v>
       </c>
       <c r="P14" t="n">
-        <v>1.251605481610348</v>
+        <v>1.17613178422681</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.761026448617347, 1.7421845146033483]</t>
+          <t>[0.748447499053424, 1.6038160694001968]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>5.79171379166965e-06</v>
+        <v>1.502353802695922e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>5.79171379166965e-06</v>
+        <v>1.502353802695922e-06</v>
       </c>
       <c r="T14" t="n">
-        <v>59.05709377320219</v>
+        <v>55.69152509542356</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[46.87483399576381, 71.23935355064057]</t>
+          <t>[46.48207813784788, 64.90097205299924]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.093125590045929e-12</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W14" t="n">
-        <v>1.093125590045929e-12</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X14" t="n">
-        <v>18.39439439439452</v>
+        <v>18.58902902902913</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.60094094094105</v>
+        <v>17.0323123123124</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.18784784784798</v>
+        <v>20.14574574574587</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.97000000000015</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>4.020268833837548e-06</v>
+        <v>3.545912919955541e-07</v>
       </c>
       <c r="I15" t="n">
-        <v>4.020268833837548e-06</v>
+        <v>3.545912919955541e-07</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>50.91214561204816</v>
+        <v>49.17433648182199</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[30.524954577011357, 71.29933664708497]</t>
+          <t>[32.202030392271425, 66.14664257137255]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>8.331179150333767e-06</v>
+        <v>5.475252433662092e-07</v>
       </c>
       <c r="O15" t="n">
-        <v>8.331179150333767e-06</v>
+        <v>5.475252433662092e-07</v>
       </c>
       <c r="P15" t="n">
-        <v>1.50318447288881</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1.0377633390236554, 1.9686056067539646]</t>
+          <t>[1.1887107337907334, 2.0189214050096567]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>5.541639835904277e-08</v>
+        <v>7.176124139363083e-10</v>
       </c>
       <c r="S15" t="n">
-        <v>5.541639835904277e-08</v>
+        <v>7.176124139363083e-10</v>
       </c>
       <c r="T15" t="n">
-        <v>55.2355687969701</v>
+        <v>53.97695101192107</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[42.90551306269726, 67.56562453124295]</t>
+          <t>[43.41424934644889, 64.53965267739324]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.177058450707591e-11</v>
+        <v>2.091660178393795e-13</v>
       </c>
       <c r="W15" t="n">
-        <v>1.177058450707591e-11</v>
+        <v>2.091660178393795e-13</v>
       </c>
       <c r="X15" t="n">
-        <v>17.47467467467479</v>
+        <v>17.03231231231241</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.7731931931933</v>
+        <v>15.52138138138148</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.17615615615628</v>
+        <v>18.54324324324335</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.97000000000015</v>
+        <v>22.87000000000014</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>8.970629695703725e-05</v>
+        <v>9.628386976601178e-10</v>
       </c>
       <c r="I16" t="n">
-        <v>8.970629695703725e-05</v>
+        <v>9.628386976601178e-10</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>46.17129338467632</v>
+        <v>65.22079547805571</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[23.650082740904892, 68.69250402844774]</t>
+          <t>[46.63902223932239, 83.80256871678903]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.0001556942745126744</v>
+        <v>8.041693311255926e-09</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0001556942745126744</v>
+        <v>8.041693311255926e-09</v>
       </c>
       <c r="P16" t="n">
-        <v>1.679289766783733</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.0629212381515014, 2.295658295415965]</t>
+          <t>[1.4402897250691948, 2.0943951023931957]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.788094525112527e-06</v>
+        <v>3.419486915845482e-14</v>
       </c>
       <c r="S16" t="n">
-        <v>1.788094525112527e-06</v>
+        <v>3.419486915845482e-14</v>
       </c>
       <c r="T16" t="n">
-        <v>49.82844442982914</v>
+        <v>62.92034399798541</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[36.41045526902201, 63.24643359063627]</t>
+          <t>[51.879239811605444, 73.96144818436537]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1.993117670906486e-09</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="W16" t="n">
-        <v>1.993117670906486e-09</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="X16" t="n">
-        <v>16.83087087087098</v>
+        <v>16.43709709709719</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.57755755755765</v>
+        <v>15.24666666666676</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.08418418418431</v>
+        <v>17.62752752752763</v>
       </c>
     </row>
   </sheetData>
